--- a/RESULTADOS_PORTATIL/OPENCL/MULTIPLICACION MATRICES/RESULTADOS/Comparacion kernels/MatrixMul_Local_Memory_resultados.xlsx/resultados.xlsx
+++ b/RESULTADOS_PORTATIL/OPENCL/MULTIPLICACION MATRICES/RESULTADOS/Comparacion kernels/MatrixMul_Local_Memory_resultados.xlsx/resultados.xlsx
@@ -416,13 +416,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>6.151E-05</v>
+        <v>3.1406E-05</v>
       </c>
       <c r="C2" s="1">
-        <v>6.2604E-05</v>
+        <v>2.401E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>5.609300000000001E-05</v>
+        <v>5.8697E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -430,13 +430,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>0.000105312</v>
+        <v>7.1197E-05</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0937E-05</v>
+        <v>1.1354E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>9.135400000000001E-05</v>
+        <v>9.234300000000001E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,13 +444,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>1.8489E-05</v>
+        <v>2.125E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>3.5052E-05</v>
+        <v>3.026E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>1.4687E-05</v>
+        <v>0.000133854</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -458,13 +458,13 @@
         <v>64</v>
       </c>
       <c r="B5" s="1">
-        <v>5.2135E-05</v>
+        <v>4.3281E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>3.2239E-05</v>
+        <v>3.401E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000227187</v>
+        <v>2.4322E-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -472,13 +472,13 @@
         <v>128</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000467447</v>
+        <v>0.000259166</v>
       </c>
       <c r="C6" s="1">
-        <v>7.677E-05</v>
+        <v>0.000151197</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000131354</v>
+        <v>0.000586458</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -486,13 +486,13 @@
         <v>256</v>
       </c>
       <c r="B7" s="1">
-        <v>0.001687968</v>
+        <v>0.0017325</v>
       </c>
       <c r="C7" s="1">
-        <v>0.00047776</v>
+        <v>0.000351822</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000818489</v>
+        <v>0.000345104</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -500,13 +500,13 @@
         <v>512</v>
       </c>
       <c r="B8" s="1">
-        <v>0.011983333</v>
+        <v>0.012968229</v>
       </c>
       <c r="C8" s="1">
-        <v>0.00197276</v>
+        <v>0.002156458</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00230901</v>
+        <v>0.002343177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -514,13 +514,13 @@
         <v>1024</v>
       </c>
       <c r="B9" s="1">
-        <v>0.105540572</v>
+        <v>0.106341614</v>
       </c>
       <c r="C9" s="1">
-        <v>0.035720677</v>
+        <v>0.032924635</v>
       </c>
       <c r="D9" s="1">
-        <v>0.019732395</v>
+        <v>0.01810302</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -528,13 +528,13 @@
         <v>2048</v>
       </c>
       <c r="B10" s="1">
-        <v>0.886020833</v>
+        <v>0.8711263020000001</v>
       </c>
       <c r="C10" s="1">
-        <v>0.6151486970000001</v>
+        <v>0.6571365100000001</v>
       </c>
       <c r="D10" s="1">
-        <v>0.167295781</v>
+        <v>0.162886145</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -542,13 +542,13 @@
         <v>4096</v>
       </c>
       <c r="B11" s="1">
-        <v>7.665912031</v>
+        <v>7.252742552000001</v>
       </c>
       <c r="C11" s="1">
-        <v>10.405797604</v>
+        <v>11.95542651</v>
       </c>
       <c r="D11" s="1">
-        <v>1.978377812</v>
+        <v>1.764039895</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -556,13 +556,13 @@
         <v>8192</v>
       </c>
       <c r="B12" s="1">
-        <v>68.092995937</v>
+        <v>65.92637515600001</v>
       </c>
       <c r="C12" s="1">
-        <v>20.785666093</v>
+        <v>219.496724479</v>
       </c>
       <c r="D12" s="1">
-        <v>14.182932656</v>
+        <v>11.52370125</v>
       </c>
     </row>
   </sheetData>
@@ -600,13 +600,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>6.151E-05</v>
+        <v>3.1406E-05</v>
       </c>
       <c r="C2" s="1">
-        <v>6.2604E-05</v>
+        <v>2.401E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>5.609300000000001E-05</v>
+        <v>5.8697E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -614,13 +614,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>0.000105312</v>
+        <v>7.1197E-05</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0937E-05</v>
+        <v>1.1354E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>9.135400000000001E-05</v>
+        <v>9.234300000000001E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -628,13 +628,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>1.8489E-05</v>
+        <v>2.125E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>3.5052E-05</v>
+        <v>3.026E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>1.4687E-05</v>
+        <v>0.000133854</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -642,13 +642,13 @@
         <v>64</v>
       </c>
       <c r="B5" s="1">
-        <v>5.2135E-05</v>
+        <v>4.3281E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>3.2239E-05</v>
+        <v>3.401E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000227187</v>
+        <v>2.4322E-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -656,13 +656,13 @@
         <v>128</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000467447</v>
+        <v>0.000259166</v>
       </c>
       <c r="C6" s="1">
-        <v>7.677E-05</v>
+        <v>0.000151197</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000131354</v>
+        <v>0.000586458</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -670,13 +670,13 @@
         <v>256</v>
       </c>
       <c r="B7" s="1">
-        <v>0.001687968</v>
+        <v>0.0017325</v>
       </c>
       <c r="C7" s="1">
-        <v>0.00047776</v>
+        <v>0.000351822</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000818489</v>
+        <v>0.000345104</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -684,13 +684,13 @@
         <v>512</v>
       </c>
       <c r="B8" s="1">
-        <v>0.011983333</v>
+        <v>0.012968229</v>
       </c>
       <c r="C8" s="1">
-        <v>0.00197276</v>
+        <v>0.002156458</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00230901</v>
+        <v>0.002343177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -698,13 +698,13 @@
         <v>1024</v>
       </c>
       <c r="B9" s="1">
-        <v>0.105540572</v>
+        <v>0.106341614</v>
       </c>
       <c r="C9" s="1">
-        <v>0.035720677</v>
+        <v>0.032924635</v>
       </c>
       <c r="D9" s="1">
-        <v>0.019732395</v>
+        <v>0.01810302</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -712,13 +712,13 @@
         <v>2048</v>
       </c>
       <c r="B10" s="1">
-        <v>0.886020833</v>
+        <v>0.8711263020000001</v>
       </c>
       <c r="C10" s="1">
-        <v>0.6151486970000001</v>
+        <v>0.6571365100000001</v>
       </c>
       <c r="D10" s="1">
-        <v>0.167295781</v>
+        <v>0.162886145</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -726,13 +726,13 @@
         <v>4096</v>
       </c>
       <c r="B11" s="1">
-        <v>7.665912031</v>
+        <v>7.252742552000001</v>
       </c>
       <c r="C11" s="1">
-        <v>10.405797604</v>
+        <v>11.95542651</v>
       </c>
       <c r="D11" s="1">
-        <v>1.978377812</v>
+        <v>1.764039895</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -740,13 +740,13 @@
         <v>8192</v>
       </c>
       <c r="B12" s="1">
-        <v>68.092995937</v>
+        <v>65.92637515600001</v>
       </c>
       <c r="C12" s="1">
-        <v>20.785666093</v>
+        <v>219.496724479</v>
       </c>
       <c r="D12" s="1">
-        <v>14.182932656</v>
+        <v>11.52370125</v>
       </c>
     </row>
   </sheetData>
